--- a/forecast_summary_B09SWHZ7F7.xlsx
+++ b/forecast_summary_B09SWHZ7F7.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,37 +438,42 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
@@ -477,32 +482,35 @@
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>-38.42826620388482</v>
       </c>
       <c r="D2" t="n">
+        <v>12.68284322987326</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>9</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>12</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -510,32 +518,35 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>-47.44783200620532</v>
       </c>
       <c r="D3" t="n">
+        <v>1.453791540414274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -543,32 +554,35 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>-35.53154772642827</v>
       </c>
       <c r="D4" t="n">
+        <v>19.7232299225518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>13</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -576,32 +590,35 @@
         <v>45648</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>-18.73884643483042</v>
       </c>
       <c r="D5" t="n">
+        <v>33.64351301104663</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>9</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>13</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -609,32 +626,35 @@
         <v>45655</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>-12.32187669269867</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.73960182790835</v>
+      </c>
+      <c r="E6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -645,29 +665,32 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>-12.95252216681728</v>
       </c>
       <c r="D7" t="n">
+        <v>38.83601504078756</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -675,32 +698,35 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>-9.435895007527812</v>
       </c>
       <c r="D8" t="n">
+        <v>45.66569778757452</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
         <v>3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>4</v>
       </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -708,32 +734,35 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>-7.672523000667129</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>44.75003280550393</v>
       </c>
       <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -741,32 +770,35 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>-32.35428741315638</v>
       </c>
       <c r="D10" t="n">
+        <v>21.61692365587052</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -774,32 +806,35 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>-94.99655446031677</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>-41.70918444654959</v>
       </c>
       <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -807,32 +842,35 @@
         <v>45697</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-165.1360418972893</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-107.3018434435523</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -840,32 +878,35 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>-186.9695134198305</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>-131.5885302310273</v>
       </c>
       <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -873,32 +914,35 @@
         <v>45711</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-133.0685264394996</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-80.17690789640791</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -909,29 +953,32 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>-37.93972567686556</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>13.48669407880255</v>
       </c>
       <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
         <v>3</v>
       </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -939,32 +986,35 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>30.22510583728828</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>85.25319843993833</v>
       </c>
       <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -972,32 +1022,35 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>33.5531830974883</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>85.77574830929147</v>
       </c>
       <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1005,32 +1058,35 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-3.674482664759025</v>
+      </c>
+      <c r="D18" t="n">
+        <v>51.5675699898328</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1038,32 +1094,35 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>-28.1443282455729</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>23.76535503289706</v>
       </c>
       <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1071,32 +1130,35 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-15.79186788788986</v>
+      </c>
+      <c r="D20" t="n">
+        <v>36.63639230015863</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1104,32 +1166,35 @@
         <v>45760</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>9.868624818836032</v>
       </c>
       <c r="D21" t="n">
+        <v>63.07285830584961</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>3</v>
       </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>B09SWHZ7F7</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AORUS FI32Q X-SA</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>B09SWHZ7F7</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>AORUS FI32Q X-SA</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1332,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1344,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1356,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1368,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1392,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2024-12-01</t>
         </is>
       </c>
     </row>
